--- a/data/trans_dic/P19C07-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03285996313858341</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05636811150075082</v>
+        <v>0.05636811150075083</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02372384480354308</v>
@@ -697,7 +697,7 @@
         <v>0.02234875746199405</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.04742699017986843</v>
+        <v>0.04742699017986842</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01614235712074646</v>
+        <v>0.01437738271792474</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01729493707769401</v>
+        <v>0.0174675672609758</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005159667219797607</v>
+        <v>0.00514261378543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02507556624384572</v>
+        <v>0.02544495419362782</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00360685866767596</v>
+        <v>0.003788102995711716</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02910813436515664</v>
+        <v>0.02976943796579018</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01481422460855103</v>
+        <v>0.01542348535126776</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03951396139139681</v>
+        <v>0.03633010987110068</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01347768431534135</v>
+        <v>0.01388886317633405</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02701631740562059</v>
+        <v>0.02717854593587836</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01261229951947102</v>
+        <v>0.01244468479939232</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03602174097584599</v>
+        <v>0.0363527458386805</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05158802606138428</v>
+        <v>0.05047446510746663</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06199894399247731</v>
+        <v>0.06061625824315732</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03112768512773817</v>
+        <v>0.03155497621106499</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06056180956944637</v>
+        <v>0.05778330264215484</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03659539158260047</v>
+        <v>0.03618053686387802</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09150076217097812</v>
+        <v>0.08996441744539475</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06052535111311807</v>
+        <v>0.06209868688620338</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07921615417098382</v>
+        <v>0.07539608973236565</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03766784445124512</v>
+        <v>0.03903941058586231</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06211720625777634</v>
+        <v>0.06285409982094281</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03702728289552901</v>
+        <v>0.03655920189912887</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0614079906695353</v>
+        <v>0.06066306705076665</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03332740952090029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02949488170959915</v>
+        <v>0.02949488170959914</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.04675181749336844</v>
@@ -833,7 +833,7 @@
         <v>0.03195494240671189</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03513458095927861</v>
+        <v>0.0351345809592786</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01702263210016854</v>
+        <v>0.01758084623631343</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004964550492474455</v>
+        <v>0.004974390852483307</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0172216513608256</v>
+        <v>0.01593152965401416</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01478674787214913</v>
+        <v>0.01586412680089169</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02887357848437635</v>
+        <v>0.02897068688501636</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.00642793318497106</v>
+        <v>0.0065549341635532</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01679389990803842</v>
+        <v>0.0152408723477225</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02720592005298823</v>
+        <v>0.02595065603050704</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02753526852124167</v>
+        <v>0.02807511902690923</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008222333738141092</v>
+        <v>0.00847235209175316</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02027123285237577</v>
+        <v>0.02026728204520331</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02437050637228913</v>
+        <v>0.02395032787190831</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05897153064434193</v>
+        <v>0.06389824325199496</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02648456003352958</v>
+        <v>0.02921900665209635</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0584213138249471</v>
+        <v>0.05990761555318474</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05059190019176637</v>
+        <v>0.05132707536994473</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07475864092060648</v>
+        <v>0.07420037073032124</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03847260577976053</v>
+        <v>0.03832082010989973</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05919192140346515</v>
+        <v>0.05417240470701783</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06587347399281533</v>
+        <v>0.06584340974566832</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05964011784704681</v>
+        <v>0.06028216872254538</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02675793595764807</v>
+        <v>0.02723781102216025</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04921130745832391</v>
+        <v>0.04936091608600057</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05037808689175344</v>
+        <v>0.05027772152341315</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02524320761188402</v>
+        <v>0.02477574881558764</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01842321641674513</v>
+        <v>0.01857486215452199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01989968390584338</v>
+        <v>0.01927822593555394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02222679971258561</v>
+        <v>0.02127346769769064</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006911847637793731</v>
+        <v>0.006754876436862757</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01236530588374569</v>
+        <v>0.01255202907419359</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00791712638728494</v>
+        <v>0.008058148006829694</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01635860867095667</v>
+        <v>0.01585689306227958</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02402866168115082</v>
+        <v>0.0244513203875621</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01962433021134522</v>
+        <v>0.01913951383985401</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02044946468758062</v>
+        <v>0.01981926857955185</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02310594799570915</v>
+        <v>0.02373740333145147</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06191938977498385</v>
+        <v>0.06159216447519914</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05243981115257851</v>
+        <v>0.04964929118740798</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05768541692289498</v>
+        <v>0.05917452602401405</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06925525699381906</v>
+        <v>0.06867529829179618</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06140207002599013</v>
+        <v>0.05780303459414306</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05938586643297381</v>
+        <v>0.0615423961572593</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08458600988067172</v>
+        <v>0.08383367783640355</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0612291332176577</v>
+        <v>0.05790333410662825</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05539370653346854</v>
+        <v>0.05370751655604461</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04526417971962755</v>
+        <v>0.04531338757016191</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05384641695574736</v>
+        <v>0.0527095130646004</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05664009553705295</v>
+        <v>0.05814342340075576</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02513134717637952</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03125802491436094</v>
+        <v>0.03125802491436095</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03792707911487551</v>
@@ -1105,7 +1105,7 @@
         <v>0.03305991770853097</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04047760174663083</v>
+        <v>0.04047760174663084</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01987190461336757</v>
+        <v>0.01842438317389034</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.017218515590674</v>
+        <v>0.01810845975799407</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01622783689959536</v>
+        <v>0.01643552734941281</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01986431593641338</v>
+        <v>0.02126865340102927</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02428244417961182</v>
+        <v>0.02523963075981589</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02675050507945697</v>
+        <v>0.02663772883250521</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0300516878670276</v>
+        <v>0.03134438108563798</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03781177173198039</v>
+        <v>0.03957986963430522</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02451029064421159</v>
+        <v>0.02337024703778266</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02548607882246891</v>
+        <v>0.02555913603665931</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02470657894711903</v>
+        <v>0.0254077001294241</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03231275257415828</v>
+        <v>0.03186689007330078</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04375279060512569</v>
+        <v>0.04150538161692306</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04142319838105939</v>
+        <v>0.04083947010529806</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03867547048915317</v>
+        <v>0.03796307800659695</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04488928156584103</v>
+        <v>0.04716855558378065</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05519034844970928</v>
+        <v>0.05683602945962767</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05773929658705624</v>
+        <v>0.05749925298201183</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05987193194541682</v>
+        <v>0.06032398279477634</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06918821514026034</v>
+        <v>0.0689315807387183</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04504611903986097</v>
+        <v>0.04215650915795925</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04398604091931386</v>
+        <v>0.04425767625764181</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04200352749924097</v>
+        <v>0.04228709520593906</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05147505414581858</v>
+        <v>0.05087825362215679</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02074387906511457</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02910485475795028</v>
+        <v>0.02910485475795029</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.04419848962599299</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01883706221713096</v>
+        <v>0.01860200807769277</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01001997227808268</v>
+        <v>0.009660610277391244</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009319400918695682</v>
+        <v>0.00978997384891536</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01289836480882993</v>
+        <v>0.01371783138215191</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02619770402076842</v>
+        <v>0.02705210646855993</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0139183426815004</v>
+        <v>0.01424304647696448</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01488041183021004</v>
+        <v>0.01430405838292969</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02066064674530282</v>
+        <v>0.02171024687832064</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02687876227498687</v>
+        <v>0.02819385639254929</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01536694960195419</v>
+        <v>0.01520491132037871</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0150678586669365</v>
+        <v>0.01549828666728133</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02058892348211625</v>
+        <v>0.02106493433058736</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06354490273257368</v>
+        <v>0.06426187420691107</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04321427353065378</v>
+        <v>0.03914695282099471</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04083450117889496</v>
+        <v>0.04152989959376966</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0642105980051899</v>
+        <v>0.06300719167878595</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0666357958846647</v>
+        <v>0.06709086647412382</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03838123659486817</v>
+        <v>0.03896813817451068</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04406618144472333</v>
+        <v>0.04386558357240131</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04111945034884383</v>
+        <v>0.04212905076513853</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05830928920825108</v>
+        <v>0.05969067269287306</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03403762942939838</v>
+        <v>0.03287501677240647</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03479163678035399</v>
+        <v>0.03598254217957435</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04346511311176011</v>
+        <v>0.04275159674193058</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02454880077324011</v>
+        <v>0.02530747341616595</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08145158981330883</v>
+        <v>0.08042730741418004</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0375428544204064</v>
+        <v>0.03752343826372812</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01327453224203858</v>
+        <v>0.01431421270477437</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0225029676800006</v>
+        <v>0.02163020463691409</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03002645954072868</v>
+        <v>0.03032314843551224</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02852511098222131</v>
+        <v>0.02829994990161041</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02144864673473133</v>
+        <v>0.0230515607066126</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02569387332463681</v>
+        <v>0.02567341548383572</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04490722327023668</v>
+        <v>0.04321645412760613</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03519407384471084</v>
+        <v>0.03367601511120753</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02369900136082151</v>
+        <v>0.02513622457065432</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08330783278719242</v>
+        <v>0.08533190502010662</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1637783477153362</v>
+        <v>0.1672257778837314</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09783312673421533</v>
+        <v>0.1021700235921712</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1009261140900284</v>
+        <v>0.1005975833986587</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04447547119507655</v>
+        <v>0.04413453491632274</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05677967303192832</v>
+        <v>0.05803415836343077</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05641229386071325</v>
+        <v>0.05557763805418291</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05431716899671007</v>
+        <v>0.05632571553005008</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04580613540860247</v>
+        <v>0.04635098454183562</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.07054963799004735</v>
+        <v>0.07309759161784958</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05877264982911348</v>
+        <v>0.05960540106121449</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05578844029384218</v>
+        <v>0.05527373434585949</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.03609594103679472</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.0417963405273729</v>
+        <v>0.04179634052737289</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.03458049690605762</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02671661227866141</v>
+        <v>0.02727732898372462</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02730196005287864</v>
+        <v>0.02593311253095444</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02249498728716737</v>
+        <v>0.02306762753223444</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02729934783011619</v>
+        <v>0.02728662880349695</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02830290483679497</v>
+        <v>0.02808672560210532</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02979199801164262</v>
+        <v>0.02916784170010834</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02947575302912456</v>
+        <v>0.03019952999847652</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03473147111746917</v>
+        <v>0.03594662730226212</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02988767087917152</v>
+        <v>0.02974893548094096</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02969919018473428</v>
+        <v>0.02967473060869321</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02753542156299028</v>
+        <v>0.02760110944072248</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03343430197728338</v>
+        <v>0.03346360517996173</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04196535671408823</v>
+        <v>0.04224080309806467</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04090227457950109</v>
+        <v>0.04036214463618802</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03520177584819571</v>
+        <v>0.03594828073125883</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04247940962264563</v>
+        <v>0.04217811770621253</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04163834030126475</v>
+        <v>0.04160442085174273</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04321778249062136</v>
+        <v>0.04231476920998339</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04319345873648304</v>
+        <v>0.04397775331634198</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0486887592649432</v>
+        <v>0.04930670306150287</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0395840434049738</v>
+        <v>0.03981299868362032</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03981440152943427</v>
+        <v>0.03947851714044519</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03744605930534799</v>
+        <v>0.03726451752550003</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04340643945882135</v>
+        <v>0.04359929171409284</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6236</v>
+        <v>5554</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6837</v>
+        <v>6906</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13572</v>
+        <v>13772</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>968</v>
+        <v>1016</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8556</v>
+        <v>8751</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4679</v>
+        <v>4871</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>19019</v>
+        <v>17487</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8822</v>
+        <v>9092</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>18622</v>
+        <v>18734</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8872</v>
+        <v>8754</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>36835</v>
+        <v>37174</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19929</v>
+        <v>19498</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24511</v>
+        <v>23964</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12066</v>
+        <v>12231</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>32780</v>
+        <v>31276</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9818</v>
+        <v>9707</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>26897</v>
+        <v>26445</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19115</v>
+        <v>19612</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38129</v>
+        <v>36290</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>24657</v>
+        <v>25555</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>42817</v>
+        <v>43325</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26046</v>
+        <v>25717</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>62795</v>
+        <v>62033</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5110</v>
+        <v>5278</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5453</v>
+        <v>5045</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7088</v>
+        <v>7604</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9631</v>
+        <v>9664</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5602</v>
+        <v>5084</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11370</v>
+        <v>10845</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>17451</v>
+        <v>17793</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5733</v>
+        <v>5907</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13181</v>
+        <v>13178</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>21867</v>
+        <v>21490</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17704</v>
+        <v>19183</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10163</v>
+        <v>11212</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18500</v>
+        <v>18970</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24250</v>
+        <v>24603</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24937</v>
+        <v>24751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12061</v>
+        <v>12014</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>19745</v>
+        <v>18071</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27530</v>
+        <v>27517</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>37798</v>
+        <v>38205</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>18656</v>
+        <v>18991</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>31999</v>
+        <v>32096</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>45202</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10861</v>
+        <v>10660</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9865</v>
+        <v>9947</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8064</v>
+        <v>7812</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10310</v>
+        <v>9868</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2976</v>
+        <v>3021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1104</v>
+        <v>1123</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3024</v>
+        <v>2931</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13704</v>
+        <v>13945</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>15231</v>
+        <v>14855</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11137</v>
+        <v>10794</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>14989</v>
+        <v>15398</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26642</v>
+        <v>26501</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28081</v>
+        <v>26587</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23375</v>
+        <v>23978</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32125</v>
+        <v>31856</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8600</v>
+        <v>8096</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14292</v>
+        <v>14811</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11793</v>
+        <v>11688</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11317</v>
+        <v>10702</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>31593</v>
+        <v>30631</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>35132</v>
+        <v>35170</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>29327</v>
+        <v>28707</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>36742</v>
+        <v>37718</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17317</v>
+        <v>16056</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16749</v>
+        <v>17615</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14272</v>
+        <v>14455</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>21765</v>
+        <v>23304</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>14478</v>
+        <v>15049</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18697</v>
+        <v>18618</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>20556</v>
+        <v>21441</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>31641</v>
+        <v>33120</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>35974</v>
+        <v>34301</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>42604</v>
+        <v>42726</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>38630</v>
+        <v>39726</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>62444</v>
+        <v>61582</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>38129</v>
+        <v>36170</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40294</v>
+        <v>39726</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>34015</v>
+        <v>33389</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>49185</v>
+        <v>51683</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>32907</v>
+        <v>33888</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40356</v>
+        <v>40188</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>40954</v>
+        <v>41263</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>57896</v>
+        <v>57681</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>66114</v>
+        <v>61873</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>73530</v>
+        <v>73984</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>65674</v>
+        <v>66117</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>99475</v>
+        <v>98322</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4670</v>
+        <v>4612</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4041</v>
+        <v>3896</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3962</v>
+        <v>4162</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6576</v>
+        <v>6994</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11948</v>
+        <v>12338</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9323</v>
+        <v>9540</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>8296</v>
+        <v>7974</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>16394</v>
+        <v>17227</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>18923</v>
+        <v>19849</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>16491</v>
+        <v>16317</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>14806</v>
+        <v>15229</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>26835</v>
+        <v>27455</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15754</v>
+        <v>15932</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17429</v>
+        <v>15788</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17362</v>
+        <v>17657</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>32738</v>
+        <v>32124</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30391</v>
+        <v>30599</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>25709</v>
+        <v>26102</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>24566</v>
+        <v>24454</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>32628</v>
+        <v>33430</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>41050</v>
+        <v>42023</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>36527</v>
+        <v>35279</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>34188</v>
+        <v>35358</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>56650</v>
+        <v>55720</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5210</v>
+        <v>5371</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>18017</v>
+        <v>17791</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>9068</v>
+        <v>9064</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2997</v>
+        <v>3232</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>21279</v>
+        <v>20454</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>27786</v>
+        <v>28061</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>23541</v>
+        <v>23356</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>17561</v>
+        <v>18873</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>29750</v>
+        <v>29726</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>51490</v>
+        <v>49551</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>37546</v>
+        <v>35927</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>24754</v>
+        <v>26256</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>17681</v>
+        <v>18110</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>36228</v>
+        <v>36991</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>23631</v>
+        <v>24679</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>22788</v>
+        <v>22714</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>42057</v>
+        <v>41734</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>52543</v>
+        <v>53704</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>46556</v>
+        <v>45868</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>44472</v>
+        <v>46116</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>53037</v>
+        <v>53667</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>80891</v>
+        <v>83813</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>62701</v>
+        <v>63589</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>58273</v>
+        <v>57735</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>65413</v>
+        <v>66785</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>79498</v>
+        <v>75512</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>59740</v>
+        <v>61261</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>90519</v>
+        <v>90477</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>77546</v>
+        <v>76954</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>93614</v>
+        <v>91653</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>84171</v>
+        <v>86238</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>122710</v>
+        <v>127004</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>155065</v>
+        <v>154345</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>179801</v>
+        <v>179653</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>151756</v>
+        <v>152118</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>228989</v>
+        <v>229189</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>102747</v>
+        <v>103422</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>119099</v>
+        <v>117526</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>93486</v>
+        <v>95468</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>140853</v>
+        <v>139854</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>114083</v>
+        <v>113990</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>135801</v>
+        <v>132964</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>123344</v>
+        <v>125583</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>172023</v>
+        <v>174206</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>205372</v>
+        <v>206560</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>241039</v>
+        <v>239005</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>206377</v>
+        <v>205377</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>297287</v>
+        <v>298608</v>
       </c>
     </row>
     <row r="32">
